--- a/target/classes/Tabla sintactica.xlsx
+++ b/target/classes/Tabla sintactica.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Javy Daniel\Desktop\Respaldo\UP\11vo cuatri\Compiladores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Javy Daniel\Desktop\Respaldo\UP\11vo cuatri\Compiladores\Lexico\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68308370-E10D-4F65-B185-C832F84E8420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C922AC-4B45-48A8-A412-F2E9512CC07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{D30793F6-85D5-459A-858F-3B5E6EA6452D}"/>
+    <workbookView xWindow="2145" yWindow="2415" windowWidth="21600" windowHeight="11295" xr2:uid="{D30793F6-85D5-459A-858F-3B5E6EA6452D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Titulo</t>
   </si>
@@ -96,9 +96,6 @@
     <t>TITULO 2P LETRA RL PA PART SME USUARIOS RU SMA CASOS SME CASO RC SMA PC</t>
   </si>
   <si>
-    <t xml:space="preserve">LETRA RL </t>
-  </si>
-  <si>
     <t>LETRA RL PA DIGITO RD PC</t>
   </si>
   <si>
@@ -114,31 +111,31 @@
     <t xml:space="preserve">COMA USUARIOS RU </t>
   </si>
   <si>
+    <t>([1-9])</t>
+  </si>
+  <si>
+    <t>(,)</t>
+  </si>
+  <si>
+    <t>([(])</t>
+  </si>
+  <si>
+    <t>([)])</t>
+  </si>
+  <si>
+    <t>([:])</t>
+  </si>
+  <si>
+    <t>([&lt;])</t>
+  </si>
+  <si>
+    <t>([&gt;])</t>
+  </si>
+  <si>
+    <t>([$])</t>
+  </si>
+  <si>
     <t>([A-Z|a-z])+</t>
-  </si>
-  <si>
-    <t>([1-9])</t>
-  </si>
-  <si>
-    <t>(,)</t>
-  </si>
-  <si>
-    <t>([(])</t>
-  </si>
-  <si>
-    <t>([)])</t>
-  </si>
-  <si>
-    <t>([:])</t>
-  </si>
-  <si>
-    <t>([&lt;])</t>
-  </si>
-  <si>
-    <t>([&gt;])</t>
-  </si>
-  <si>
-    <t>([$])</t>
   </si>
 </sst>
 </file>
@@ -570,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99C179B-47AF-4C26-B729-9D4D886978DF}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,31 +592,31 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="165" x14ac:dyDescent="0.25">
@@ -706,7 +703,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -725,7 +722,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
@@ -751,7 +748,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -770,7 +767,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -790,7 +787,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -809,7 +806,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -830,7 +827,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
@@ -851,7 +848,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -872,7 +869,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -892,7 +889,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -912,7 +909,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -932,7 +929,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -953,7 +950,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M18" s="7"/>
     </row>
@@ -971,7 +968,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
